--- a/Biweekly time sheet with sick leave and vacation1.xlsx
+++ b/Biweekly time sheet with sick leave and vacation1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
   <si>
     <t>[Company Name]</t>
   </si>
@@ -101,6 +101,9 @@
   </si>
   <si>
     <t>Employee Email:</t>
+  </si>
+  <si>
+    <t>this is a change</t>
   </si>
 </sst>
 </file>
@@ -702,9 +705,11 @@
     <tabColor rgb="FF315D71"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:H35"/>
+  <dimension ref="B2:K35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -716,7 +721,7 @@
     <col min="9" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:11" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="12"/>
       <c r="C2" s="12"/>
       <c r="D2" s="12"/>
@@ -727,7 +732,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:11" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -736,7 +741,7 @@
       <c r="G3" s="2"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="2:8" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:11" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="13" t="s">
         <v>0</v>
       </c>
@@ -747,7 +752,7 @@
       <c r="G4" s="13"/>
       <c r="H4" s="13"/>
     </row>
-    <row r="5" spans="2:8" ht="14.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:11" ht="14.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -756,7 +761,7 @@
       <c r="G5" s="5"/>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="2:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="14" t="s">
         <v>27</v>
       </c>
@@ -767,8 +772,11 @@
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="28"/>
-    </row>
-    <row r="7" spans="2:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K6" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="14" t="s">
         <v>26</v>
       </c>
@@ -780,7 +788,7 @@
       <c r="G7" s="4"/>
       <c r="H7" s="29"/>
     </row>
-    <row r="8" spans="2:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="14" t="s">
         <v>25</v>
       </c>
@@ -790,7 +798,7 @@
       <c r="G8" s="6"/>
       <c r="H8" s="25"/>
     </row>
-    <row r="9" spans="2:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="15"/>
       <c r="C9" s="4"/>
       <c r="D9" s="25"/>
@@ -798,7 +806,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="25"/>
     </row>
-    <row r="10" spans="2:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="14" t="s">
         <v>1</v>
       </c>
@@ -810,7 +818,7 @@
       <c r="G10" s="34"/>
       <c r="H10" s="26"/>
     </row>
-    <row r="11" spans="2:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="14" t="s">
         <v>2</v>
       </c>
@@ -822,7 +830,7 @@
       <c r="G11" s="34"/>
       <c r="H11" s="26"/>
     </row>
-    <row r="12" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -831,7 +839,7 @@
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
     </row>
-    <row r="13" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="23" t="s">
         <v>3</v>
       </c>
@@ -852,7 +860,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="2:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="20" t="s">
         <v>9</v>
       </c>
@@ -871,7 +879,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="2:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="20" t="s">
         <v>10</v>
       </c>
@@ -890,7 +898,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="2:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="20" t="s">
         <v>11</v>
       </c>

--- a/Biweekly time sheet with sick leave and vacation1.xlsx
+++ b/Biweekly time sheet with sick leave and vacation1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
   <si>
     <t>BI-WEEKLY TIME SHEET</t>
   </si>
@@ -117,6 +117,9 @@
   </si>
   <si>
     <t>,bfldsabfelakgfebliearbgf;lkearaubgf</t>
+  </si>
+  <si>
+    <t>another branch edit</t>
   </si>
 </sst>
 </file>
@@ -339,12 +342,6 @@
   </cellStyleXfs>
   <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
@@ -428,6 +425,12 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -819,551 +822,554 @@
   <dimension ref="A2:AMK35"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.5703125" style="3"/>
-    <col min="2" max="2" width="18.42578125" style="3"/>
-    <col min="3" max="3" width="13.5703125" style="3"/>
-    <col min="4" max="7" width="9.140625" style="3"/>
-    <col min="8" max="8" width="18.7109375" style="3"/>
-    <col min="9" max="1025" width="9" style="3"/>
+    <col min="1" max="1" width="2.5703125" style="1"/>
+    <col min="2" max="2" width="18.42578125" style="1"/>
+    <col min="3" max="3" width="13.5703125" style="1"/>
+    <col min="4" max="7" width="9.140625" style="1"/>
+    <col min="8" max="8" width="18.7109375" style="1"/>
+    <col min="9" max="1025" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="2:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="5"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="3"/>
     </row>
     <row r="4" spans="2:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
     </row>
     <row r="5" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="8"/>
-      <c r="J5" s="3" t="s">
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="6"/>
+      <c r="J5" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="2:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="12"/>
-      <c r="F6" s="10" t="s">
+      <c r="C6" s="9"/>
+      <c r="D6" s="10"/>
+      <c r="F6" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="8"/>
-      <c r="H6" s="13"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="11"/>
     </row>
     <row r="7" spans="2:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="12"/>
-      <c r="F7" s="10" t="s">
+      <c r="C7" s="9"/>
+      <c r="D7" s="10"/>
+      <c r="F7" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="8"/>
-      <c r="H7" s="14"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="12"/>
     </row>
     <row r="8" spans="2:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="12"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="17"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="10"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="15"/>
     </row>
     <row r="9" spans="2:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="15"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="17"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="17"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="15"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="15"/>
     </row>
     <row r="10" spans="2:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="12"/>
-      <c r="F10" s="10" t="s">
+      <c r="B10" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="D10" s="10"/>
+      <c r="F10" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G10" s="18"/>
-      <c r="H10" s="12"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="10"/>
     </row>
     <row r="11" spans="2:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="12"/>
-      <c r="F11" s="10" t="s">
+      <c r="C11" s="9"/>
+      <c r="D11" s="10"/>
+      <c r="F11" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="18"/>
-      <c r="H11" s="12"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="10"/>
     </row>
     <row r="12" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="K12" s="3" t="s">
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="K12" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="13" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="20" t="s">
+      <c r="C13" s="35"/>
+      <c r="D13" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="20" t="s">
+      <c r="E13" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="20" t="s">
+      <c r="F13" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="G13" s="20" t="s">
+      <c r="G13" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="H13" s="20" t="s">
+      <c r="H13" s="18" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="14" spans="2:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="22" t="str">
+      <c r="C14" s="20" t="str">
         <f>IFERROR(IF(H6="","",H6),"")</f>
         <v/>
       </c>
-      <c r="D14" s="23">
-        <v>8</v>
-      </c>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="24">
+      <c r="D14" s="21">
+        <v>8</v>
+      </c>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="22">
         <f t="shared" ref="H14:H27" si="0">IF(SUM(D14:G14)&gt;24,"You've entered more than 24 hours.",SUM(D14:G14))</f>
         <v>8</v>
       </c>
     </row>
     <row r="15" spans="2:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="22" t="str">
+      <c r="C15" s="20" t="str">
         <f t="shared" ref="C15:C27" si="1">IF($H$6="","",C14+1)</f>
         <v/>
       </c>
-      <c r="D15" s="23">
-        <v>8</v>
-      </c>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="24">
+      <c r="D15" s="21">
+        <v>8</v>
+      </c>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="22">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
     <row r="16" spans="2:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="22" t="str">
+      <c r="C16" s="20" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D16" s="23">
-        <v>8</v>
-      </c>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="24">
+      <c r="D16" s="21">
+        <v>8</v>
+      </c>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="22">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="2:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="21" t="s">
+    <row r="17" spans="2:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="22" t="str">
+      <c r="C17" s="20" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D17" s="23">
-        <v>8</v>
-      </c>
-      <c r="E17" s="23">
+      <c r="D17" s="21">
+        <v>8</v>
+      </c>
+      <c r="E17" s="21">
         <v>2.5</v>
       </c>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="24">
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="22">
         <f t="shared" si="0"/>
         <v>10.5</v>
       </c>
-    </row>
-    <row r="18" spans="2:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="21" t="s">
+      <c r="L17" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="22" t="str">
+      <c r="C18" s="20" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D18" s="23">
-        <v>8</v>
-      </c>
-      <c r="E18" s="23">
+      <c r="D18" s="21">
+        <v>8</v>
+      </c>
+      <c r="E18" s="21">
         <v>2</v>
       </c>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="24">
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="22">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="2:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="21" t="s">
+    <row r="19" spans="2:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="22" t="str">
+      <c r="C19" s="20" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="24">
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="21" t="s">
+    <row r="20" spans="2:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="22" t="str">
+      <c r="C20" s="20" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="24">
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="21" t="s">
+    <row r="21" spans="2:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="22" t="str">
+      <c r="C21" s="20" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23">
-        <v>8</v>
-      </c>
-      <c r="H21" s="24">
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21">
+        <v>8</v>
+      </c>
+      <c r="H21" s="22">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="2:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="21" t="s">
+    <row r="22" spans="2:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="22" t="str">
+      <c r="C22" s="20" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23">
-        <v>8</v>
-      </c>
-      <c r="G22" s="23"/>
-      <c r="H22" s="24">
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21">
+        <v>8</v>
+      </c>
+      <c r="G22" s="21"/>
+      <c r="H22" s="22">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="2:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="21" t="s">
+    <row r="23" spans="2:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="22" t="str">
+      <c r="C23" s="20" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D23" s="23">
-        <v>8</v>
-      </c>
-      <c r="E23" s="23">
+      <c r="D23" s="21">
+        <v>8</v>
+      </c>
+      <c r="E23" s="21">
         <v>1</v>
       </c>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="24">
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="22">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="2:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="21" t="s">
+    <row r="24" spans="2:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="22" t="str">
+      <c r="C24" s="20" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D24" s="23">
-        <v>8</v>
-      </c>
-      <c r="E24" s="23">
+      <c r="D24" s="21">
+        <v>8</v>
+      </c>
+      <c r="E24" s="21">
         <v>1</v>
       </c>
-      <c r="F24" s="23"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="24">
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="22">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="2:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="21" t="s">
+    <row r="25" spans="2:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="22" t="str">
+      <c r="C25" s="20" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D25" s="23">
-        <v>8</v>
-      </c>
-      <c r="E25" s="23">
+      <c r="D25" s="21">
+        <v>8</v>
+      </c>
+      <c r="E25" s="21">
         <v>1</v>
       </c>
-      <c r="F25" s="23"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="24">
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="22">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="2:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="21" t="s">
+    <row r="26" spans="2:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="22" t="str">
+      <c r="C26" s="20" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="24">
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="21" t="s">
+    <row r="27" spans="2:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="22" t="str">
+      <c r="C27" s="20" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="24">
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="19"/>
-      <c r="C28" s="25" t="s">
+    <row r="28" spans="2:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="17"/>
+      <c r="C28" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="D28" s="26">
+      <c r="D28" s="24">
         <f>SUM(D14:D27)</f>
         <v>64</v>
       </c>
-      <c r="E28" s="26">
+      <c r="E28" s="24">
         <f>SUM(E14:E27)</f>
         <v>7.5</v>
       </c>
-      <c r="F28" s="26">
+      <c r="F28" s="24">
         <f>SUM(F14:F27)</f>
         <v>8</v>
       </c>
-      <c r="G28" s="26">
+      <c r="G28" s="24">
         <f>SUM(G14:G27)</f>
         <v>8</v>
       </c>
-      <c r="H28" s="26">
+      <c r="H28" s="24">
         <f>SUM(H14:H27)</f>
         <v>87.5</v>
       </c>
     </row>
-    <row r="29" spans="2:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="5"/>
-      <c r="C29" s="27" t="s">
+    <row r="29" spans="2:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="3"/>
+      <c r="C29" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="D29" s="28">
+      <c r="D29" s="26">
         <v>10</v>
       </c>
-      <c r="E29" s="29">
+      <c r="E29" s="27">
         <f>D29*1.5</f>
         <v>15</v>
       </c>
-      <c r="F29" s="29">
+      <c r="F29" s="27">
         <f>D29</f>
         <v>10</v>
       </c>
-      <c r="G29" s="29">
+      <c r="G29" s="27">
         <f>D29</f>
         <v>10</v>
       </c>
-      <c r="H29" s="30"/>
-    </row>
-    <row r="30" spans="2:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="5"/>
-      <c r="C30" s="27" t="s">
+      <c r="H29" s="28"/>
+    </row>
+    <row r="30" spans="2:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="3"/>
+      <c r="C30" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="D30" s="31">
+      <c r="D30" s="29">
         <f>D28*D29</f>
         <v>640</v>
       </c>
-      <c r="E30" s="31">
+      <c r="E30" s="29">
         <f>E28*E29</f>
         <v>112.5</v>
       </c>
-      <c r="F30" s="31">
+      <c r="F30" s="29">
         <f>F28*F29</f>
         <v>80</v>
       </c>
-      <c r="G30" s="31">
+      <c r="G30" s="29">
         <f>G28*G29</f>
         <v>80</v>
       </c>
-      <c r="H30" s="31">
+      <c r="H30" s="29">
         <f>SUM(D30:G30)</f>
         <v>912.5</v>
       </c>
     </row>
-    <row r="31" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="5"/>
-      <c r="C31" s="32"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="19"/>
-      <c r="H31" s="19"/>
-    </row>
-    <row r="32" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="33"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="34"/>
+    <row r="31" spans="2:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="3"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
+    </row>
+    <row r="32" spans="2:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="31"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="36"/>
+      <c r="F32" s="36"/>
+      <c r="G32" s="36"/>
+      <c r="H32" s="32"/>
     </row>
     <row r="33" spans="2:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="35" t="s">
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="E33" s="32"/>
-      <c r="F33" s="36"/>
-      <c r="G33" s="32"/>
-      <c r="H33" s="35"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="34"/>
+      <c r="G33" s="30"/>
+      <c r="H33" s="33"/>
     </row>
     <row r="34" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="34"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="36"/>
+      <c r="E34" s="36"/>
+      <c r="F34" s="36"/>
+      <c r="G34" s="36"/>
+      <c r="H34" s="32"/>
     </row>
     <row r="35" spans="2:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="35" t="s">
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="E35" s="32"/>
-      <c r="F35" s="35"/>
-      <c r="G35" s="32"/>
-      <c r="H35" s="35"/>
+      <c r="E35" s="30"/>
+      <c r="F35" s="33"/>
+      <c r="G35" s="30"/>
+      <c r="H35" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="3">
